--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_11_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_11_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1359167.443207381</v>
+        <v>1391693.546437363</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2547500.214958228</v>
+        <v>2542066.711076394</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8648449.900298137</v>
+        <v>8597731.501435151</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8250401.159644986</v>
+        <v>8264659.539575186</v>
       </c>
     </row>
     <row r="11">
@@ -671,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -680,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -713,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>15.26809192273228</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -783,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>12.73205987707308</v>
+        <v>5.309829763041574</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="X3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -832,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.75721046822443</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -905,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -917,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="R5" t="n">
-        <v>3.487951988786138</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,10 +980,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -996,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="T6" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>12.73205987707308</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="H7" t="n">
-        <v>10.75721046822444</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1093,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>15.30273751513505</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1136,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>20.9346168091141</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.62029119463083</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1154,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>25.62029119463083</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>25.62029119463083</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1275,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1300,22 +1302,22 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2968606583479769</v>
+        <v>3.33498035419292</v>
       </c>
       <c r="G10" t="n">
-        <v>25.62029119463083</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="H10" t="n">
-        <v>25.62029119463083</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1379,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>385.696825518079</v>
+        <v>397.471720218623</v>
       </c>
       <c r="G11" t="n">
-        <v>385.696825518079</v>
+        <v>397.471720218623</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,22 +1417,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>95.88978015269392</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>20.67038504140117</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1449,25 +1451,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,22 +1499,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>57.24612669612033</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V12" t="n">
-        <v>199.5253541396645</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1534,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F13" t="n">
-        <v>62.33263748886699</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
@@ -1549,7 +1551,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1607,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>249.5645004251843</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>385.6968255180789</v>
+        <v>397.471720218623</v>
       </c>
       <c r="G14" t="n">
-        <v>385.6968255180789</v>
+        <v>43.15022814185674</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1689,19 +1691,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>146.3148206091763</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>148.6434129395587</v>
       </c>
       <c r="T15" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1749,10 +1751,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1771,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
         <v>45.199959188537</v>
@@ -1807,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>9.275596830496713</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>198.8047456439109</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1856,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>350.8664019468538</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2241675082893</v>
@@ -1904,10 +1906,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1986,7 +1988,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034768</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2002,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>67.48148437503433</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2044,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2053,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>161.1486436253825</v>
       </c>
     </row>
     <row r="20">
@@ -2081,16 +2083,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>121.4159166785318</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>256.6528892529226</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
@@ -2132,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2144,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2245,10 +2247,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>25.31590541686196</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>25.08467608327355</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2321,16 +2323,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>39.97995768823944</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
@@ -2378,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>153.1487335778827</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2403,7 +2405,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -2479,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>33.42595480754855</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>156.1271626621467</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,13 +2557,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>104.5113366705975</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2570,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2618,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>2.695916923640468</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2761,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>81.6480249358935</v>
+        <v>235.4745188564435</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2795,19 +2797,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>61.28737103419864</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>184.2874524547672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2883,7 +2885,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H30" t="n">
         <v>104.3883541553076</v>
@@ -2950,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>33.89392690056376</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2992,19 +2994,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>9.693200015577403</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>158.9897392454088</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>95.1020344086442</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3092,10 +3094,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3193,22 +3195,22 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3241,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3281,7 +3283,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>58.58442069852281</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>311.4936872159395</v>
       </c>
     </row>
     <row r="36">
@@ -3345,7 +3347,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -3357,13 +3359,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231958</v>
       </c>
       <c r="H36" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3424,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>128.7835007017901</v>
+        <v>41.75100837039689</v>
       </c>
     </row>
     <row r="38">
@@ -3503,25 +3505,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>319.1339639110205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3563,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>35.18155893056252</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3591,7 +3593,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933832</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>136.5310119231965</v>
@@ -3600,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>47.1416784925589</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>74.09260911231075</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3737,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>43.15022814185649</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>385.6968255180788</v>
+        <v>397.4717202186229</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3791,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>112.6879856009228</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3831,10 +3833,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>156.5912426325231</v>
+        <v>51.07081135767146</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U42" t="n">
         <v>225.8879277888686</v>
@@ -3882,10 +3884,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>166.4983977897105</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>65.05884990877765</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3949,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4022,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>38.5324790554208</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>308.6302789431814</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>385.6968255180788</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4053,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>52.79448082180443</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,25 +4103,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T45" t="n">
         <v>196.8897623984489</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8879277888686</v>
+        <v>120.3674965140172</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>43.31785343913972</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>9.693200015577853</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4198,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.69701961884617</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="C2" t="n">
-        <v>35.69701961884617</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="D2" t="n">
-        <v>35.69701961884617</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="E2" t="n">
-        <v>35.69701961884617</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="F2" t="n">
-        <v>28.75151886964269</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="G2" t="n">
-        <v>13.29420824829416</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="H2" t="n">
-        <v>13.29420824829416</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I2" t="n">
-        <v>13.29420824829416</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="J2" t="n">
-        <v>1.224219001210804</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K2" t="n">
-        <v>1.224219001210804</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L2" t="n">
-        <v>1.224219001210804</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="M2" t="n">
-        <v>15.7618196405891</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="N2" t="n">
-        <v>30.9115297805728</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="O2" t="n">
-        <v>46.0612399205565</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P2" t="n">
-        <v>61.2109500605402</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q2" t="n">
-        <v>51.11933469231312</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="R2" t="n">
-        <v>51.11933469231312</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S2" t="n">
-        <v>51.11933469231312</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T2" t="n">
-        <v>51.11933469231312</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U2" t="n">
-        <v>35.69701961884617</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V2" t="n">
-        <v>35.69701961884617</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W2" t="n">
-        <v>35.69701961884617</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="X2" t="n">
-        <v>35.69701961884617</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="Y2" t="n">
-        <v>35.69701961884617</v>
+        <v>21.38658590694733</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.978351653996518</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="C3" t="n">
-        <v>1.978351653996518</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="D3" t="n">
-        <v>1.978351653996518</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="E3" t="n">
-        <v>1.978351653996518</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="F3" t="n">
-        <v>1.978351653996518</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="G3" t="n">
-        <v>1.978351653996518</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="H3" t="n">
-        <v>1.978351653996518</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="I3" t="n">
-        <v>1.978351653996518</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="J3" t="n">
-        <v>1.224219001210804</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K3" t="n">
-        <v>1.224219001210804</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L3" t="n">
-        <v>16.37392914119451</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="M3" t="n">
-        <v>30.9115297805728</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="N3" t="n">
-        <v>46.0612399205565</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="O3" t="n">
-        <v>46.0612399205565</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P3" t="n">
-        <v>61.2109500605402</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="Q3" t="n">
-        <v>61.2109500605402</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R3" t="n">
-        <v>45.75363943919166</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S3" t="n">
-        <v>30.29632881784312</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T3" t="n">
-        <v>17.43566227534506</v>
+        <v>22.14071855973305</v>
       </c>
       <c r="U3" t="n">
-        <v>17.43566227534506</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="V3" t="n">
-        <v>17.43566227534506</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="W3" t="n">
-        <v>17.43566227534506</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="X3" t="n">
-        <v>1.978351653996518</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.978351653996518</v>
+        <v>1.304216312122629</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.59615086525642</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C4" t="n">
-        <v>47.59615086525642</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D4" t="n">
-        <v>47.59615086525642</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E4" t="n">
-        <v>47.59615086525642</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F4" t="n">
-        <v>47.59615086525642</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G4" t="n">
-        <v>47.59615086525642</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H4" t="n">
-        <v>32.13884024390788</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I4" t="n">
-        <v>16.68152962255934</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J4" t="n">
-        <v>16.68152962255934</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K4" t="n">
-        <v>1.224219001210804</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L4" t="n">
-        <v>16.37392914119451</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M4" t="n">
-        <v>31.52363928117821</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N4" t="n">
-        <v>46.6733494211619</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O4" t="n">
-        <v>61.2109500605402</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P4" t="n">
-        <v>58.46202002507908</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.59615086525642</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R4" t="n">
-        <v>47.59615086525642</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S4" t="n">
-        <v>47.59615086525642</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T4" t="n">
-        <v>47.59615086525642</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U4" t="n">
-        <v>47.59615086525642</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V4" t="n">
-        <v>47.59615086525642</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="W4" t="n">
-        <v>47.59615086525642</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X4" t="n">
-        <v>47.59615086525642</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.59615086525642</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32.13884024390788</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="C5" t="n">
-        <v>32.13884024390788</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="D5" t="n">
-        <v>32.13884024390788</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="E5" t="n">
-        <v>32.13884024390788</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="F5" t="n">
-        <v>16.68152962255934</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="G5" t="n">
-        <v>1.224219001210804</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="H5" t="n">
-        <v>1.224219001210804</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I5" t="n">
-        <v>1.224219001210804</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="J5" t="n">
-        <v>1.224219001210804</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K5" t="n">
-        <v>16.37392914119451</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L5" t="n">
-        <v>16.37392914119451</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M5" t="n">
-        <v>16.37392914119451</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N5" t="n">
-        <v>30.9115297805728</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O5" t="n">
-        <v>46.0612399205565</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P5" t="n">
-        <v>61.2109500605402</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.11933469231312</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="R5" t="n">
-        <v>47.59615086525642</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S5" t="n">
-        <v>47.59615086525642</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T5" t="n">
-        <v>47.59615086525642</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U5" t="n">
-        <v>47.59615086525642</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V5" t="n">
-        <v>47.59615086525642</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W5" t="n">
-        <v>47.59615086525642</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="X5" t="n">
-        <v>47.59615086525642</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="Y5" t="n">
-        <v>32.13884024390788</v>
+        <v>21.38658590694733</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.978351653996518</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="C6" t="n">
-        <v>1.978351653996518</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="D6" t="n">
-        <v>1.978351653996518</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="E6" t="n">
-        <v>1.978351653996518</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F6" t="n">
-        <v>1.978351653996518</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G6" t="n">
-        <v>1.978351653996518</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H6" t="n">
-        <v>1.978351653996518</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I6" t="n">
-        <v>1.978351653996518</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J6" t="n">
-        <v>1.224219001210804</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K6" t="n">
-        <v>15.7618196405891</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L6" t="n">
-        <v>15.7618196405891</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="M6" t="n">
-        <v>15.7618196405891</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="N6" t="n">
-        <v>30.9115297805728</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="O6" t="n">
-        <v>46.0612399205565</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P6" t="n">
-        <v>46.0612399205565</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q6" t="n">
-        <v>61.2109500605402</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R6" t="n">
-        <v>61.2109500605402</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S6" t="n">
-        <v>61.2109500605402</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="T6" t="n">
-        <v>45.75363943919166</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U6" t="n">
-        <v>45.75363943919166</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="V6" t="n">
-        <v>30.29632881784312</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="W6" t="n">
-        <v>30.29632881784312</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="X6" t="n">
-        <v>17.43566227534506</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.978351653996518</v>
+        <v>13.6131814684388</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.00470940373054</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="C7" t="n">
-        <v>27.54739878238201</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="D7" t="n">
-        <v>27.54739878238201</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E7" t="n">
-        <v>27.54739878238201</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F7" t="n">
-        <v>27.54739878238201</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="G7" t="n">
-        <v>27.54739878238201</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="H7" t="n">
-        <v>16.68152962255934</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I7" t="n">
-        <v>1.224219001210804</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J7" t="n">
-        <v>1.224219001210804</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K7" t="n">
-        <v>1.224219001210804</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L7" t="n">
-        <v>16.37392914119451</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M7" t="n">
-        <v>30.9115297805728</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N7" t="n">
-        <v>46.0612399205565</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O7" t="n">
-        <v>61.2109500605402</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P7" t="n">
-        <v>58.46202002507908</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q7" t="n">
-        <v>43.00470940373054</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="R7" t="n">
-        <v>43.00470940373054</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S7" t="n">
-        <v>43.00470940373054</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T7" t="n">
-        <v>43.00470940373054</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U7" t="n">
-        <v>43.00470940373054</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V7" t="n">
-        <v>43.00470940373054</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W7" t="n">
-        <v>43.00470940373054</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="X7" t="n">
-        <v>43.00470940373054</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.00470940373054</v>
+        <v>21.38658590694733</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>76.6020827637447</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C8" t="n">
-        <v>76.6020827637447</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D8" t="n">
-        <v>55.45600517878097</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E8" t="n">
-        <v>55.45600517878097</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F8" t="n">
-        <v>29.57692316400236</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G8" t="n">
-        <v>14.11961254265382</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H8" t="n">
-        <v>14.11961254265382</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I8" t="n">
-        <v>14.11961254265382</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J8" t="n">
-        <v>2.049623295570466</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K8" t="n">
-        <v>27.41371157825499</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L8" t="n">
-        <v>27.41371157825499</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M8" t="n">
-        <v>27.41371157825499</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="N8" t="n">
-        <v>51.75298821315428</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="O8" t="n">
-        <v>77.1170764958388</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P8" t="n">
-        <v>102.4811647785233</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q8" t="n">
-        <v>102.4811647785233</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="R8" t="n">
-        <v>102.4811647785233</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="S8" t="n">
-        <v>102.4811647785233</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="T8" t="n">
-        <v>102.4811647785233</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="U8" t="n">
-        <v>102.4811647785233</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V8" t="n">
-        <v>102.4811647785233</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W8" t="n">
-        <v>102.4811647785233</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X8" t="n">
-        <v>76.6020827637447</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y8" t="n">
-        <v>76.6020827637447</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27.92870531034908</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C9" t="n">
-        <v>27.92870531034908</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D9" t="n">
-        <v>2.049623295570466</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E9" t="n">
-        <v>2.049623295570466</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F9" t="n">
-        <v>2.049623295570466</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G9" t="n">
-        <v>2.049623295570466</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H9" t="n">
-        <v>2.049623295570466</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I9" t="n">
-        <v>2.049623295570466</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J9" t="n">
-        <v>2.049623295570466</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K9" t="n">
-        <v>2.049623295570466</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L9" t="n">
-        <v>27.41371157825499</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M9" t="n">
-        <v>51.75298821315428</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="N9" t="n">
-        <v>77.1170764958388</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="O9" t="n">
-        <v>77.1170764958388</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P9" t="n">
-        <v>102.4811647785233</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q9" t="n">
-        <v>102.4811647785233</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
-        <v>76.6020827637447</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S9" t="n">
-        <v>76.6020827637447</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="T9" t="n">
-        <v>76.6020827637447</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U9" t="n">
-        <v>50.72300074896609</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="V9" t="n">
-        <v>50.72300074896609</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="W9" t="n">
-        <v>50.72300074896609</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="X9" t="n">
-        <v>50.72300074896609</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y9" t="n">
-        <v>50.72300074896609</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>102.4811647785233</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="C10" t="n">
-        <v>102.4811647785233</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="D10" t="n">
-        <v>102.4811647785233</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="E10" t="n">
-        <v>102.4811647785233</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="F10" t="n">
-        <v>102.1813055276668</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="G10" t="n">
-        <v>76.30222351288816</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="H10" t="n">
-        <v>50.42314149810954</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I10" t="n">
-        <v>50.42314149810954</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="J10" t="n">
-        <v>24.54405948333093</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="K10" t="n">
-        <v>2.049623295570466</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L10" t="n">
-        <v>27.41371157825499</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M10" t="n">
-        <v>52.77779986093951</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N10" t="n">
-        <v>78.14188814362404</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O10" t="n">
-        <v>102.4811647785233</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P10" t="n">
-        <v>102.4811647785233</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="Q10" t="n">
-        <v>102.4811647785233</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="R10" t="n">
-        <v>102.4811647785233</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="S10" t="n">
-        <v>102.4811647785233</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="T10" t="n">
-        <v>102.4811647785233</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="U10" t="n">
-        <v>102.4811647785233</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="V10" t="n">
-        <v>102.4811647785233</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="W10" t="n">
-        <v>102.4811647785233</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="X10" t="n">
-        <v>102.4811647785233</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="Y10" t="n">
-        <v>102.4811647785233</v>
+        <v>24.75525293138463</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1290.701948107483</v>
+        <v>1161.965629740321</v>
       </c>
       <c r="C11" t="n">
-        <v>1290.701948107483</v>
+        <v>1161.965629740321</v>
       </c>
       <c r="D11" t="n">
-        <v>1290.701948107483</v>
+        <v>1161.965629740321</v>
       </c>
       <c r="E11" t="n">
-        <v>1290.701948107483</v>
+        <v>1161.965629740321</v>
       </c>
       <c r="F11" t="n">
-        <v>901.1091950589184</v>
+        <v>760.4790436609042</v>
       </c>
       <c r="G11" t="n">
-        <v>511.5164420103538</v>
+        <v>358.992457581487</v>
       </c>
       <c r="H11" t="n">
-        <v>184.3217220463567</v>
+        <v>31.79773761748984</v>
       </c>
       <c r="I11" t="n">
-        <v>30.85574604144632</v>
+        <v>31.79773761748984</v>
       </c>
       <c r="J11" t="n">
-        <v>146.623602274396</v>
+        <v>31.79773761748984</v>
       </c>
       <c r="K11" t="n">
-        <v>440.8744132943945</v>
+        <v>31.79773761748984</v>
       </c>
       <c r="L11" t="n">
-        <v>822.7142705572927</v>
+        <v>425.2947406339266</v>
       </c>
       <c r="M11" t="n">
-        <v>1119.814201280551</v>
+        <v>818.7917436503633</v>
       </c>
       <c r="N11" t="n">
-        <v>1160.947444809418</v>
+        <v>1196.389877858055</v>
       </c>
       <c r="O11" t="n">
-        <v>1542.787302072316</v>
+        <v>1589.886880874492</v>
       </c>
       <c r="P11" t="n">
-        <v>1542.787302072316</v>
+        <v>1589.886880874492</v>
       </c>
       <c r="Q11" t="n">
-        <v>1542.787302072316</v>
+        <v>1589.886880874492</v>
       </c>
       <c r="R11" t="n">
-        <v>1487.758612602809</v>
+        <v>1589.886880874492</v>
       </c>
       <c r="S11" t="n">
-        <v>1311.581124916979</v>
+        <v>1589.886880874492</v>
       </c>
       <c r="T11" t="n">
-        <v>1311.581124916979</v>
+        <v>1589.886880874492</v>
       </c>
       <c r="U11" t="n">
-        <v>1311.581124916979</v>
+        <v>1493.028517083892</v>
       </c>
       <c r="V11" t="n">
-        <v>1311.581124916979</v>
+        <v>1161.965629740321</v>
       </c>
       <c r="W11" t="n">
-        <v>1290.701948107483</v>
+        <v>1161.965629740321</v>
       </c>
       <c r="X11" t="n">
-        <v>1290.701948107483</v>
+        <v>1161.965629740321</v>
       </c>
       <c r="Y11" t="n">
-        <v>1290.701948107483</v>
+        <v>1161.965629740321</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>711.0335478018557</v>
+        <v>31.79773761748984</v>
       </c>
       <c r="C12" t="n">
-        <v>536.5805185207287</v>
+        <v>31.79773761748984</v>
       </c>
       <c r="D12" t="n">
-        <v>536.5805185207287</v>
+        <v>31.79773761748984</v>
       </c>
       <c r="E12" t="n">
-        <v>377.3430635152732</v>
+        <v>31.79773761748984</v>
       </c>
       <c r="F12" t="n">
-        <v>230.8085055421582</v>
+        <v>31.79773761748984</v>
       </c>
       <c r="G12" t="n">
-        <v>92.89839248842428</v>
+        <v>31.79773761748984</v>
       </c>
       <c r="H12" t="n">
-        <v>92.89839248842428</v>
+        <v>31.79773761748984</v>
       </c>
       <c r="I12" t="n">
-        <v>30.85574604144632</v>
+        <v>31.79773761748984</v>
       </c>
       <c r="J12" t="n">
-        <v>106.1129084415762</v>
+        <v>31.79773761748984</v>
       </c>
       <c r="K12" t="n">
-        <v>361.3602288826747</v>
+        <v>31.79773761748984</v>
       </c>
       <c r="L12" t="n">
-        <v>523.239834893177</v>
+        <v>425.2947406339266</v>
       </c>
       <c r="M12" t="n">
-        <v>905.0796921560752</v>
+        <v>818.7917436503633</v>
       </c>
       <c r="N12" t="n">
-        <v>984.2572776555086</v>
+        <v>1212.2887466668</v>
       </c>
       <c r="O12" t="n">
-        <v>1034.46950459189</v>
+        <v>1568.920208213201</v>
       </c>
       <c r="P12" t="n">
-        <v>1370.714318206719</v>
+        <v>1589.886880874492</v>
       </c>
       <c r="Q12" t="n">
-        <v>1542.787302072316</v>
+        <v>1589.886880874492</v>
       </c>
       <c r="R12" t="n">
-        <v>1542.787302072316</v>
+        <v>1589.886880874492</v>
       </c>
       <c r="S12" t="n">
-        <v>1542.787302072316</v>
+        <v>1532.06251047437</v>
       </c>
       <c r="T12" t="n">
-        <v>1542.787302072316</v>
+        <v>1333.183962597149</v>
       </c>
       <c r="U12" t="n">
-        <v>1542.787302072316</v>
+        <v>1105.014338567989</v>
       </c>
       <c r="V12" t="n">
-        <v>1341.246540315079</v>
+        <v>869.8622303362463</v>
       </c>
       <c r="W12" t="n">
-        <v>1087.009183586877</v>
+        <v>615.6248736080446</v>
       </c>
       <c r="X12" t="n">
-        <v>1087.009183586877</v>
+        <v>407.7733734025118</v>
       </c>
       <c r="Y12" t="n">
-        <v>879.2488848219236</v>
+        <v>200.0130746375579</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>556.8950898617002</v>
+        <v>705.9837400035597</v>
       </c>
       <c r="C13" t="n">
-        <v>556.8950898617002</v>
+        <v>705.9837400035597</v>
       </c>
       <c r="D13" t="n">
-        <v>556.8950898617002</v>
+        <v>705.9837400035597</v>
       </c>
       <c r="E13" t="n">
-        <v>556.8950898617002</v>
+        <v>687.4212932787551</v>
       </c>
       <c r="F13" t="n">
-        <v>493.9328297719355</v>
+        <v>540.5313457808447</v>
       </c>
       <c r="G13" t="n">
-        <v>324.9330295102679</v>
+        <v>371.5315455191771</v>
       </c>
       <c r="H13" t="n">
-        <v>167.1846569427981</v>
+        <v>213.7831729517072</v>
       </c>
       <c r="I13" t="n">
-        <v>30.85574604144632</v>
+        <v>77.4542620503555</v>
       </c>
       <c r="J13" t="n">
-        <v>30.85574604144632</v>
+        <v>31.79773761748984</v>
       </c>
       <c r="K13" t="n">
-        <v>87.15793910771447</v>
+        <v>88.09993068375799</v>
       </c>
       <c r="L13" t="n">
-        <v>214.7317966688729</v>
+        <v>215.6737882449164</v>
       </c>
       <c r="M13" t="n">
-        <v>359.6296653869028</v>
+        <v>360.5716569629463</v>
       </c>
       <c r="N13" t="n">
-        <v>506.5168030713319</v>
+        <v>507.4587946473754</v>
       </c>
       <c r="O13" t="n">
-        <v>626.174553580572</v>
+        <v>627.1165451566155</v>
       </c>
       <c r="P13" t="n">
-        <v>705.0417484275162</v>
+        <v>705.9837400035597</v>
       </c>
       <c r="Q13" t="n">
-        <v>705.0417484275162</v>
+        <v>705.9837400035597</v>
       </c>
       <c r="R13" t="n">
-        <v>556.8950898617002</v>
+        <v>705.9837400035597</v>
       </c>
       <c r="S13" t="n">
-        <v>556.8950898617002</v>
+        <v>705.9837400035597</v>
       </c>
       <c r="T13" t="n">
-        <v>556.8950898617002</v>
+        <v>705.9837400035597</v>
       </c>
       <c r="U13" t="n">
-        <v>556.8950898617002</v>
+        <v>705.9837400035597</v>
       </c>
       <c r="V13" t="n">
-        <v>556.8950898617002</v>
+        <v>705.9837400035597</v>
       </c>
       <c r="W13" t="n">
-        <v>556.8950898617002</v>
+        <v>705.9837400035597</v>
       </c>
       <c r="X13" t="n">
-        <v>556.8950898617002</v>
+        <v>705.9837400035597</v>
       </c>
       <c r="Y13" t="n">
-        <v>556.8950898617002</v>
+        <v>705.9837400035597</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1542.787302072316</v>
+        <v>1589.886880874492</v>
       </c>
       <c r="C14" t="n">
-        <v>1542.787302072316</v>
+        <v>1220.92436393408</v>
       </c>
       <c r="D14" t="n">
-        <v>1542.787302072316</v>
+        <v>862.6586653273298</v>
       </c>
       <c r="E14" t="n">
-        <v>1290.701948107483</v>
+        <v>476.8704127290856</v>
       </c>
       <c r="F14" t="n">
-        <v>901.1091950589184</v>
+        <v>75.38382664966838</v>
       </c>
       <c r="G14" t="n">
-        <v>511.5164420103538</v>
+        <v>31.79773761748984</v>
       </c>
       <c r="H14" t="n">
-        <v>184.3217220463567</v>
+        <v>31.79773761748984</v>
       </c>
       <c r="I14" t="n">
-        <v>30.85574604144631</v>
+        <v>31.79773761748984</v>
       </c>
       <c r="J14" t="n">
-        <v>146.623602274396</v>
+        <v>147.5655938504396</v>
       </c>
       <c r="K14" t="n">
-        <v>440.8744132943945</v>
+        <v>147.5655938504396</v>
       </c>
       <c r="L14" t="n">
-        <v>447.7536531825594</v>
+        <v>541.0625968668763</v>
       </c>
       <c r="M14" t="n">
-        <v>829.5935104454576</v>
+        <v>934.559599883313</v>
       </c>
       <c r="N14" t="n">
-        <v>1211.433367708356</v>
+        <v>1328.05660289975</v>
       </c>
       <c r="O14" t="n">
-        <v>1236.939061923753</v>
+        <v>1437.429349647522</v>
       </c>
       <c r="P14" t="n">
-        <v>1542.787302072316</v>
+        <v>1437.429349647522</v>
       </c>
       <c r="Q14" t="n">
-        <v>1542.787302072316</v>
+        <v>1589.886880874492</v>
       </c>
       <c r="R14" t="n">
-        <v>1542.787302072316</v>
+        <v>1589.886880874492</v>
       </c>
       <c r="S14" t="n">
-        <v>1542.787302072316</v>
+        <v>1589.886880874492</v>
       </c>
       <c r="T14" t="n">
-        <v>1542.787302072316</v>
+        <v>1589.886880874492</v>
       </c>
       <c r="U14" t="n">
-        <v>1542.787302072316</v>
+        <v>1589.886880874492</v>
       </c>
       <c r="V14" t="n">
-        <v>1542.787302072316</v>
+        <v>1589.886880874492</v>
       </c>
       <c r="W14" t="n">
-        <v>1542.787302072316</v>
+        <v>1589.886880874492</v>
       </c>
       <c r="X14" t="n">
-        <v>1542.787302072316</v>
+        <v>1589.886880874492</v>
       </c>
       <c r="Y14" t="n">
-        <v>1542.787302072316</v>
+        <v>1589.886880874492</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>596.4544184414424</v>
+        <v>514.4226315653236</v>
       </c>
       <c r="C15" t="n">
-        <v>422.0013891603154</v>
+        <v>339.9696022841966</v>
       </c>
       <c r="D15" t="n">
-        <v>274.2086410702383</v>
+        <v>191.0351926229453</v>
       </c>
       <c r="E15" t="n">
-        <v>274.2086410702383</v>
+        <v>31.79773761748984</v>
       </c>
       <c r="F15" t="n">
-        <v>274.2086410702383</v>
+        <v>31.79773761748984</v>
       </c>
       <c r="G15" t="n">
-        <v>136.2985280165045</v>
+        <v>31.79773761748984</v>
       </c>
       <c r="H15" t="n">
-        <v>30.85574604144631</v>
+        <v>31.79773761748984</v>
       </c>
       <c r="I15" t="n">
-        <v>30.85574604144631</v>
+        <v>31.79773761748984</v>
       </c>
       <c r="J15" t="n">
-        <v>106.1129084415761</v>
+        <v>107.0549000176197</v>
       </c>
       <c r="K15" t="n">
-        <v>106.1129084415761</v>
+        <v>107.0549000176197</v>
       </c>
       <c r="L15" t="n">
-        <v>487.9527657044742</v>
+        <v>500.5519030340564</v>
       </c>
       <c r="M15" t="n">
-        <v>869.7926229673724</v>
+        <v>894.0489060504931</v>
       </c>
       <c r="N15" t="n">
-        <v>984.2572776555083</v>
+        <v>1287.54590906693</v>
       </c>
       <c r="O15" t="n">
-        <v>1034.46950459189</v>
+        <v>1396.847224347604</v>
       </c>
       <c r="P15" t="n">
-        <v>1370.714318206719</v>
+        <v>1417.813897008895</v>
       </c>
       <c r="Q15" t="n">
-        <v>1542.787302072316</v>
+        <v>1589.886880874492</v>
       </c>
       <c r="R15" t="n">
-        <v>1492.573931484141</v>
+        <v>1589.886880874492</v>
       </c>
       <c r="S15" t="n">
-        <v>1492.573931484141</v>
+        <v>1439.742019319382</v>
       </c>
       <c r="T15" t="n">
-        <v>1293.695383606919</v>
+        <v>1439.742019319382</v>
       </c>
       <c r="U15" t="n">
-        <v>1293.695383606919</v>
+        <v>1211.572395290222</v>
       </c>
       <c r="V15" t="n">
-        <v>1058.543275375177</v>
+        <v>976.4202870584791</v>
       </c>
       <c r="W15" t="n">
-        <v>804.3059186469752</v>
+        <v>722.1829303302775</v>
       </c>
       <c r="X15" t="n">
-        <v>596.4544184414424</v>
+        <v>722.1829303302775</v>
       </c>
       <c r="Y15" t="n">
-        <v>596.4544184414424</v>
+        <v>514.4226315653236</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>76.51227047431198</v>
+        <v>705.9837400035597</v>
       </c>
       <c r="C16" t="n">
-        <v>76.51227047431198</v>
+        <v>705.9837400035597</v>
       </c>
       <c r="D16" t="n">
-        <v>76.51227047431198</v>
+        <v>705.9837400035597</v>
       </c>
       <c r="E16" t="n">
-        <v>76.51227047431198</v>
+        <v>687.4212932787551</v>
       </c>
       <c r="F16" t="n">
-        <v>76.51227047431198</v>
+        <v>540.5313457808447</v>
       </c>
       <c r="G16" t="n">
-        <v>76.51227047431198</v>
+        <v>371.5315455191771</v>
       </c>
       <c r="H16" t="n">
-        <v>76.51227047431198</v>
+        <v>213.7831729517072</v>
       </c>
       <c r="I16" t="n">
-        <v>76.51227047431198</v>
+        <v>77.4542620503555</v>
       </c>
       <c r="J16" t="n">
-        <v>30.85574604144631</v>
+        <v>31.79773761748984</v>
       </c>
       <c r="K16" t="n">
-        <v>87.15793910771445</v>
+        <v>88.09993068375799</v>
       </c>
       <c r="L16" t="n">
-        <v>214.7317966688729</v>
+        <v>215.6737882449164</v>
       </c>
       <c r="M16" t="n">
-        <v>359.6296653869028</v>
+        <v>360.5716569629463</v>
       </c>
       <c r="N16" t="n">
-        <v>506.5168030713319</v>
+        <v>507.4587946473754</v>
       </c>
       <c r="O16" t="n">
-        <v>626.174553580572</v>
+        <v>627.1165451566155</v>
       </c>
       <c r="P16" t="n">
-        <v>705.0417484275162</v>
+        <v>705.9837400035597</v>
       </c>
       <c r="Q16" t="n">
-        <v>675.6248292811381</v>
+        <v>705.9837400035597</v>
       </c>
       <c r="R16" t="n">
-        <v>527.478170715322</v>
+        <v>705.9837400035597</v>
       </c>
       <c r="S16" t="n">
-        <v>313.1897475334847</v>
+        <v>705.9837400035597</v>
       </c>
       <c r="T16" t="n">
-        <v>85.88156020208643</v>
+        <v>705.9837400035597</v>
       </c>
       <c r="U16" t="n">
-        <v>76.51227047431198</v>
+        <v>705.9837400035597</v>
       </c>
       <c r="V16" t="n">
-        <v>76.51227047431198</v>
+        <v>705.9837400035597</v>
       </c>
       <c r="W16" t="n">
-        <v>76.51227047431198</v>
+        <v>705.9837400035597</v>
       </c>
       <c r="X16" t="n">
-        <v>76.51227047431198</v>
+        <v>705.9837400035597</v>
       </c>
       <c r="Y16" t="n">
-        <v>76.51227047431198</v>
+        <v>705.9837400035597</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>777.3160057778002</v>
+        <v>1104.379069117472</v>
       </c>
       <c r="C17" t="n">
-        <v>408.3534888373885</v>
+        <v>735.4165521770608</v>
       </c>
       <c r="D17" t="n">
-        <v>408.3534888373885</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E17" t="n">
-        <v>408.3534888373885</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F17" t="n">
-        <v>408.3534888373885</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J17" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5537,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T17" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.752638628377</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V17" t="n">
-        <v>1893.689751284806</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W17" t="n">
-        <v>1540.921096014692</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X17" t="n">
-        <v>1167.455337753612</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y17" t="n">
-        <v>777.3160057778002</v>
+        <v>1490.978909181594</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J18" t="n">
         <v>129.2001442204943</v>
@@ -5634,7 +5636,7 @@
         <v>1572.325111207637</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5647,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C19" t="n">
-        <v>270.0191909330953</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D19" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5692,31 +5694,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U19" t="n">
-        <v>438.9553738610022</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="V19" t="n">
-        <v>438.9553738610022</v>
+        <v>216.719389522771</v>
       </c>
       <c r="W19" t="n">
-        <v>438.9553738610022</v>
+        <v>216.719389522771</v>
       </c>
       <c r="X19" t="n">
-        <v>438.9553738610022</v>
+        <v>216.719389522771</v>
       </c>
       <c r="Y19" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1580.775345511217</v>
+        <v>1871.983983358262</v>
       </c>
       <c r="C20" t="n">
-        <v>1211.812828570805</v>
+        <v>1871.983983358262</v>
       </c>
       <c r="D20" t="n">
-        <v>1211.812828570805</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E20" t="n">
-        <v>1211.812828570805</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F20" t="n">
         <v>952.5674858910851</v>
@@ -5747,16 +5749,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J20" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5780,22 +5782,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="W20" t="n">
-        <v>2344.380435748108</v>
+        <v>1871.983983358262</v>
       </c>
       <c r="X20" t="n">
-        <v>1970.914677487028</v>
+        <v>1871.983983358262</v>
       </c>
       <c r="Y20" t="n">
-        <v>1580.775345511217</v>
+        <v>1871.983983358262</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C21" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E21" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5868,10 +5870,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5884,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2342.015910972395</v>
+        <v>2515.500626187982</v>
       </c>
       <c r="C22" t="n">
-        <v>2173.079728044489</v>
+        <v>2346.564443260075</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>2196.44780384774</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>2048.534710265346</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>2079.26528169842</v>
       </c>
       <c r="L22" t="n">
         <v>2206.839139259579</v>
@@ -5932,28 +5934,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R22" t="n">
-        <v>2549.002432452407</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S22" t="n">
-        <v>2523.664375802635</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T22" t="n">
-        <v>2523.664375802635</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U22" t="n">
-        <v>2523.664375802635</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V22" t="n">
-        <v>2523.664375802635</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W22" t="n">
-        <v>2523.664375802635</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X22" t="n">
-        <v>2523.664375802635</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y22" t="n">
-        <v>2523.664375802635</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1392.984777118936</v>
+        <v>1373.145632153538</v>
       </c>
       <c r="C23" t="n">
-        <v>1024.022260178525</v>
+        <v>1004.183115213127</v>
       </c>
       <c r="D23" t="n">
-        <v>665.7565615717742</v>
+        <v>1004.183115213127</v>
       </c>
       <c r="E23" t="n">
-        <v>665.7565615717742</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F23" t="n">
-        <v>625.3727659270879</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G23" t="n">
         <v>207.4089578252748</v>
@@ -5987,13 +5989,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6011,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T23" t="n">
-        <v>2423.485734520778</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U23" t="n">
-        <v>2169.72394915887</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V23" t="n">
-        <v>2169.72394915887</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W23" t="n">
-        <v>2169.72394915887</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="X23" t="n">
-        <v>2169.72394915887</v>
+        <v>1759.74547221766</v>
       </c>
       <c r="Y23" t="n">
-        <v>1779.584617183058</v>
+        <v>1759.74547221766</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E24" t="n">
         <v>505.8730812692495</v>
@@ -6066,13 +6068,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641994</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M24" t="n">
         <v>1194.968834417902</v>
@@ -6087,22 +6089,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022.963088632153</v>
+        <v>2214.475051914318</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.963088632153</v>
+        <v>2214.475051914318</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632153</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632153</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="H25" t="n">
         <v>2022.963088632153</v>
@@ -6172,25 +6174,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S25" t="n">
-        <v>2539.444886308983</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T25" t="n">
-        <v>2312.136698977585</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U25" t="n">
-        <v>2022.963088632153</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V25" t="n">
-        <v>2022.963088632153</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="W25" t="n">
-        <v>2022.963088632153</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="X25" t="n">
-        <v>2022.963088632153</v>
+        <v>2214.475051914318</v>
       </c>
       <c r="Y25" t="n">
-        <v>2022.963088632153</v>
+        <v>2214.475051914318</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>159.5099885583417</v>
+        <v>920.3919303875161</v>
       </c>
       <c r="C26" t="n">
-        <v>53.94298182036444</v>
+        <v>920.3919303875161</v>
       </c>
       <c r="D26" t="n">
-        <v>53.94298182036444</v>
+        <v>920.3919303875161</v>
       </c>
       <c r="E26" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6248,10 +6250,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T26" t="n">
         <v>2247.308246834948</v>
@@ -6260,16 +6262,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V26" t="n">
-        <v>1662.483574129469</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W26" t="n">
-        <v>1309.714918859355</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X26" t="n">
-        <v>936.2491605982752</v>
+        <v>1306.991770451638</v>
       </c>
       <c r="Y26" t="n">
-        <v>546.1098286224635</v>
+        <v>1306.991770451638</v>
       </c>
     </row>
     <row r="27">
@@ -6279,73 +6281,73 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>204.0596212327002</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C28" t="n">
-        <v>204.0596212327002</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K28" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S28" t="n">
-        <v>513.8405610245969</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T28" t="n">
-        <v>286.5323736931987</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U28" t="n">
-        <v>204.0596212327002</v>
+        <v>2459.296041668279</v>
       </c>
       <c r="V28" t="n">
-        <v>204.0596212327002</v>
+        <v>2204.611553462393</v>
       </c>
       <c r="W28" t="n">
-        <v>204.0596212327002</v>
+        <v>2204.611553462393</v>
       </c>
       <c r="X28" t="n">
-        <v>204.0596212327002</v>
+        <v>2204.611553462393</v>
       </c>
       <c r="Y28" t="n">
-        <v>204.0596212327002</v>
+        <v>2204.611553462393</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>750.1002187247734</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C29" t="n">
-        <v>381.1377017843616</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D29" t="n">
-        <v>381.1377017843616</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E29" t="n">
-        <v>381.1377017843616</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F29" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G29" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
         <v>53.94298182036445</v>
@@ -6461,19 +6463,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6485,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2635.242655630143</v>
       </c>
       <c r="T29" t="n">
-        <v>2247.308246834948</v>
+        <v>2635.242655630143</v>
       </c>
       <c r="U29" t="n">
-        <v>1993.54646147304</v>
+        <v>2635.242655630143</v>
       </c>
       <c r="V29" t="n">
-        <v>1662.48357412947</v>
+        <v>2304.179768286572</v>
       </c>
       <c r="W29" t="n">
-        <v>1309.714918859356</v>
+        <v>1951.411113016458</v>
       </c>
       <c r="X29" t="n">
-        <v>936.2491605982757</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="Y29" t="n">
-        <v>750.1002187247734</v>
+        <v>1577.945354755378</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
         <v>221.4284102424006</v>
@@ -6540,43 +6542,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>257.1154545468206</v>
+        <v>2170.876182214546</v>
       </c>
       <c r="C31" t="n">
-        <v>88.1792716189137</v>
+        <v>2170.876182214546</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>2170.876182214546</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K31" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q31" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R31" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S31" t="n">
-        <v>484.4236418782189</v>
+        <v>2687.357979891377</v>
       </c>
       <c r="T31" t="n">
-        <v>257.1154545468206</v>
+        <v>2460.049792559978</v>
       </c>
       <c r="U31" t="n">
-        <v>257.1154545468206</v>
+        <v>2170.876182214546</v>
       </c>
       <c r="V31" t="n">
-        <v>257.1154545468206</v>
+        <v>2170.876182214546</v>
       </c>
       <c r="W31" t="n">
-        <v>257.1154545468206</v>
+        <v>2170.876182214546</v>
       </c>
       <c r="X31" t="n">
-        <v>257.1154545468206</v>
+        <v>2170.876182214546</v>
       </c>
       <c r="Y31" t="n">
-        <v>257.1154545468206</v>
+        <v>2170.876182214546</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>214.5386780278481</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="C32" t="n">
-        <v>53.94298182036444</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="D32" t="n">
-        <v>53.94298182036444</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="E32" t="n">
-        <v>53.94298182036444</v>
+        <v>978.9553557306176</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036444</v>
+        <v>567.9694509410101</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036444</v>
+        <v>150.005642839197</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6725,25 +6727,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2520.971603332392</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T32" t="n">
         <v>2302.336936304455</v>
       </c>
       <c r="U32" t="n">
-        <v>2048.575150942546</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V32" t="n">
         <v>1717.512263598976</v>
       </c>
       <c r="W32" t="n">
-        <v>1364.743608328861</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X32" t="n">
-        <v>991.2778500677816</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y32" t="n">
-        <v>601.1385180919699</v>
+        <v>1364.743608328862</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
         <v>221.4284102424003</v>
@@ -6774,28 +6776,28 @@
         <v>115.9856282673422</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6816,10 +6818,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6832,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036444</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036444</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036444</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036444</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6889,19 +6891,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>184.2708856551153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W34" t="n">
-        <v>184.2708856551153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1954.141365880777</v>
+        <v>1995.909162857191</v>
       </c>
       <c r="C35" t="n">
-        <v>1954.141365880777</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D35" t="n">
-        <v>1595.875667274027</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E35" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F35" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6968,19 +6970,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>2637.972908494462</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V35" t="n">
-        <v>2306.910021150891</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W35" t="n">
-        <v>1954.141365880777</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X35" t="n">
-        <v>1954.141365880777</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y35" t="n">
-        <v>1954.141365880777</v>
+        <v>2382.509002921313</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G36" t="n">
         <v>221.4284102424006</v>
@@ -7011,13 +7013,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L36" t="n">
         <v>713.8062203571349</v>
@@ -7026,13 +7028,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7053,10 +7055,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>2654.976355290548</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>2486.040172362641</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>2486.040172362641</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>2486.040172362641</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>2486.040172362641</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>2317.040372100974</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>2159.291999533504</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.26528169842</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V37" t="n">
-        <v>473.4444960005474</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W37" t="n">
-        <v>184.0273259635867</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X37" t="n">
-        <v>184.0273259635867</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>2654.976355290548</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1626.94664591678</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="C38" t="n">
-        <v>1626.94664591678</v>
+        <v>940.7524019189434</v>
       </c>
       <c r="D38" t="n">
-        <v>1268.680947310029</v>
+        <v>940.7524019189434</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117851</v>
+        <v>940.7524019189434</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>529.7664971293359</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036444</v>
+        <v>529.7664971293359</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036444</v>
@@ -7211,13 +7213,13 @@
         <v>1662.483574129469</v>
       </c>
       <c r="W38" t="n">
-        <v>1626.94664591678</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X38" t="n">
-        <v>1626.94664591678</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="Y38" t="n">
-        <v>1626.94664591678</v>
+        <v>1309.714918859355</v>
       </c>
     </row>
     <row r="39">
@@ -7239,28 +7241,28 @@
         <v>505.8730812692488</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
         <v>1748.695370517452</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>546.4805193761945</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C40" t="n">
-        <v>546.4805193761945</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D40" t="n">
-        <v>396.3638799638587</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E40" t="n">
-        <v>248.4507863814656</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F40" t="n">
-        <v>101.5608388835552</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G40" t="n">
-        <v>101.5608388835552</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H40" t="n">
         <v>53.94298182036444</v>
@@ -7354,28 +7356,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>653.2879649010698</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9995417192325</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="X40" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="Y40" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1175.199268628667</v>
+        <v>1546.300791842313</v>
       </c>
       <c r="C41" t="n">
-        <v>806.236751688255</v>
+        <v>1177.338274901902</v>
       </c>
       <c r="D41" t="n">
-        <v>806.236751688255</v>
+        <v>819.0725762951511</v>
       </c>
       <c r="E41" t="n">
-        <v>420.4484990900108</v>
+        <v>433.2843236969069</v>
       </c>
       <c r="F41" t="n">
-        <v>30.85574604144631</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="G41" t="n">
-        <v>30.85574604144631</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="H41" t="n">
-        <v>30.85574604144631</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="I41" t="n">
-        <v>30.85574604144631</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="J41" t="n">
-        <v>30.85574604144631</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="K41" t="n">
-        <v>325.1065570614448</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="L41" t="n">
-        <v>328.9427327055937</v>
+        <v>425.2947406339264</v>
       </c>
       <c r="M41" t="n">
-        <v>364.880654705725</v>
+        <v>818.7917436503631</v>
       </c>
       <c r="N41" t="n">
-        <v>702.6416734338841</v>
+        <v>1196.389877858055</v>
       </c>
       <c r="O41" t="n">
-        <v>1084.481530696782</v>
+        <v>1589.886880874491</v>
       </c>
       <c r="P41" t="n">
-        <v>1390.329770845345</v>
+        <v>1589.886880874491</v>
       </c>
       <c r="Q41" t="n">
-        <v>1542.787302072315</v>
+        <v>1589.886880874491</v>
       </c>
       <c r="R41" t="n">
-        <v>1542.787302072315</v>
+        <v>1589.886880874491</v>
       </c>
       <c r="S41" t="n">
-        <v>1542.787302072315</v>
+        <v>1589.886880874491</v>
       </c>
       <c r="T41" t="n">
-        <v>1428.961053990575</v>
+        <v>1589.886880874491</v>
       </c>
       <c r="U41" t="n">
-        <v>1175.199268628667</v>
+        <v>1589.886880874491</v>
       </c>
       <c r="V41" t="n">
-        <v>1175.199268628667</v>
+        <v>1589.886880874491</v>
       </c>
       <c r="W41" t="n">
-        <v>1175.199268628667</v>
+        <v>1589.886880874491</v>
       </c>
       <c r="X41" t="n">
-        <v>1175.199268628667</v>
+        <v>1589.886880874491</v>
       </c>
       <c r="Y41" t="n">
-        <v>1175.199268628667</v>
+        <v>1589.886880874491</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>448.6616703513653</v>
+        <v>206.2507668986169</v>
       </c>
       <c r="C42" t="n">
-        <v>274.2086410702383</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="D42" t="n">
-        <v>274.2086410702383</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="E42" t="n">
-        <v>274.2086410702383</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="F42" t="n">
-        <v>274.2086410702383</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="G42" t="n">
-        <v>136.2985280165044</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="H42" t="n">
-        <v>30.85574604144631</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="I42" t="n">
-        <v>30.85574604144631</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="J42" t="n">
-        <v>106.1129084415761</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="K42" t="n">
-        <v>361.3602288826746</v>
+        <v>287.0450580585883</v>
       </c>
       <c r="L42" t="n">
-        <v>398.8442051279219</v>
+        <v>680.542061075025</v>
       </c>
       <c r="M42" t="n">
-        <v>573.4520618295581</v>
+        <v>781.9262021803272</v>
       </c>
       <c r="N42" t="n">
-        <v>652.6296473289915</v>
+        <v>1175.423205196764</v>
       </c>
       <c r="O42" t="n">
-        <v>1034.46950459189</v>
+        <v>1568.9202082132</v>
       </c>
       <c r="P42" t="n">
-        <v>1370.714318206718</v>
+        <v>1589.886880874491</v>
       </c>
       <c r="Q42" t="n">
-        <v>1542.787302072315</v>
+        <v>1589.886880874491</v>
       </c>
       <c r="R42" t="n">
-        <v>1492.57393148414</v>
+        <v>1589.886880874491</v>
       </c>
       <c r="S42" t="n">
-        <v>1334.400959128056</v>
+        <v>1538.300202735429</v>
       </c>
       <c r="T42" t="n">
-        <v>1334.400959128056</v>
+        <v>1339.421654858208</v>
       </c>
       <c r="U42" t="n">
-        <v>1106.231335098896</v>
+        <v>1111.252030829048</v>
       </c>
       <c r="V42" t="n">
-        <v>871.0792268671532</v>
+        <v>876.0999225973053</v>
       </c>
       <c r="W42" t="n">
-        <v>616.8418701389517</v>
+        <v>621.8625658691036</v>
       </c>
       <c r="X42" t="n">
-        <v>616.8418701389517</v>
+        <v>414.0110656635708</v>
       </c>
       <c r="Y42" t="n">
-        <v>448.6616703513653</v>
+        <v>206.2507668986169</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1187.654122026488</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="C43" t="n">
-        <v>1018.717939098581</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="D43" t="n">
-        <v>868.6012996862455</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="E43" t="n">
-        <v>868.6012996862455</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="F43" t="n">
-        <v>868.6012996862455</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="G43" t="n">
-        <v>868.6012996862455</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="H43" t="n">
-        <v>868.6012996862455</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="I43" t="n">
-        <v>868.6012996862455</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="J43" t="n">
-        <v>868.6012996862455</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="K43" t="n">
-        <v>924.9034927525137</v>
+        <v>88.09993068375796</v>
       </c>
       <c r="L43" t="n">
-        <v>1052.477350313672</v>
+        <v>215.6737882449164</v>
       </c>
       <c r="M43" t="n">
-        <v>1197.375219031702</v>
+        <v>360.5716569629462</v>
       </c>
       <c r="N43" t="n">
-        <v>1344.262356716131</v>
+        <v>507.4587946473753</v>
       </c>
       <c r="O43" t="n">
-        <v>1463.920107225371</v>
+        <v>627.1165451566154</v>
       </c>
       <c r="P43" t="n">
-        <v>1542.787302072315</v>
+        <v>705.9837400035595</v>
       </c>
       <c r="Q43" t="n">
-        <v>1542.787302072315</v>
+        <v>705.9837400035595</v>
       </c>
       <c r="R43" t="n">
-        <v>1542.787302072315</v>
+        <v>705.9837400035595</v>
       </c>
       <c r="S43" t="n">
-        <v>1542.787302072315</v>
+        <v>705.9837400035595</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.787302072315</v>
+        <v>549.2044585524677</v>
       </c>
       <c r="U43" t="n">
-        <v>1542.787302072315</v>
+        <v>549.2044585524677</v>
       </c>
       <c r="V43" t="n">
-        <v>1542.787302072315</v>
+        <v>549.2044585524677</v>
       </c>
       <c r="W43" t="n">
-        <v>1253.370132035355</v>
+        <v>259.7872885155072</v>
       </c>
       <c r="X43" t="n">
-        <v>1253.370132035355</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="Y43" t="n">
-        <v>1253.370132035355</v>
+        <v>31.79773761748983</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>399.818262981858</v>
+        <v>400.7602545579015</v>
       </c>
       <c r="C44" t="n">
-        <v>30.85574604144631</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="D44" t="n">
-        <v>30.85574604144631</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="E44" t="n">
-        <v>30.85574604144631</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="F44" t="n">
-        <v>30.85574604144631</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="G44" t="n">
-        <v>30.85574604144631</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="H44" t="n">
-        <v>30.85574604144631</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="I44" t="n">
-        <v>30.85574604144631</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="J44" t="n">
-        <v>30.85574604144631</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="K44" t="n">
-        <v>325.1065570614448</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="L44" t="n">
-        <v>625.5705079048857</v>
+        <v>425.2947406339264</v>
       </c>
       <c r="M44" t="n">
-        <v>661.508429905017</v>
+        <v>818.7917436503631</v>
       </c>
       <c r="N44" t="n">
-        <v>702.6416734338841</v>
+        <v>1212.2887466668</v>
       </c>
       <c r="O44" t="n">
-        <v>1084.481530696782</v>
+        <v>1589.886880874491</v>
       </c>
       <c r="P44" t="n">
-        <v>1390.329770845345</v>
+        <v>1589.886880874491</v>
       </c>
       <c r="Q44" t="n">
-        <v>1542.787302072315</v>
+        <v>1589.886880874491</v>
       </c>
       <c r="R44" t="n">
-        <v>1487.758612602808</v>
+        <v>1589.886880874491</v>
       </c>
       <c r="S44" t="n">
-        <v>1487.758612602808</v>
+        <v>1589.886880874491</v>
       </c>
       <c r="T44" t="n">
-        <v>1487.758612602808</v>
+        <v>1550.965184858915</v>
       </c>
       <c r="U44" t="n">
-        <v>1487.758612602808</v>
+        <v>1550.965184858915</v>
       </c>
       <c r="V44" t="n">
-        <v>1487.758612602808</v>
+        <v>1550.965184858915</v>
       </c>
       <c r="W44" t="n">
-        <v>1176.010856094544</v>
+        <v>1550.965184858915</v>
       </c>
       <c r="X44" t="n">
-        <v>1176.010856094544</v>
+        <v>1177.499426597835</v>
       </c>
       <c r="Y44" t="n">
-        <v>786.4181030459798</v>
+        <v>787.3600946220233</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>454.3980155609941</v>
+        <v>206.2507668986169</v>
       </c>
       <c r="C45" t="n">
-        <v>454.3980155609941</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="D45" t="n">
-        <v>305.4636058997428</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="E45" t="n">
-        <v>146.2261508942873</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="F45" t="n">
-        <v>146.2261508942873</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="G45" t="n">
-        <v>92.89839248842428</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="H45" t="n">
-        <v>92.89839248842428</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="I45" t="n">
-        <v>30.85574604144631</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="J45" t="n">
-        <v>106.1129084415761</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="K45" t="n">
-        <v>361.3602288826746</v>
+        <v>287.0450580585883</v>
       </c>
       <c r="L45" t="n">
-        <v>743.2000861455726</v>
+        <v>680.542061075025</v>
       </c>
       <c r="M45" t="n">
-        <v>1077.152676021671</v>
+        <v>743.6409615205559</v>
       </c>
       <c r="N45" t="n">
-        <v>1156.330261521105</v>
+        <v>1137.137964536993</v>
       </c>
       <c r="O45" t="n">
-        <v>1206.542488457486</v>
+        <v>1253.642067259663</v>
       </c>
       <c r="P45" t="n">
-        <v>1542.787302072315</v>
+        <v>1589.886880874491</v>
       </c>
       <c r="Q45" t="n">
-        <v>1542.787302072315</v>
+        <v>1589.886880874491</v>
       </c>
       <c r="R45" t="n">
-        <v>1492.57393148414</v>
+        <v>1589.886880874491</v>
       </c>
       <c r="S45" t="n">
-        <v>1492.57393148414</v>
+        <v>1431.713908518408</v>
       </c>
       <c r="T45" t="n">
-        <v>1293.695383606919</v>
+        <v>1232.835360641187</v>
       </c>
       <c r="U45" t="n">
-        <v>1065.525759577759</v>
+        <v>1111.252030829048</v>
       </c>
       <c r="V45" t="n">
-        <v>830.373651346016</v>
+        <v>876.0999225973053</v>
       </c>
       <c r="W45" t="n">
-        <v>830.373651346016</v>
+        <v>621.8625658691036</v>
       </c>
       <c r="X45" t="n">
-        <v>830.373651346016</v>
+        <v>414.0110656635708</v>
       </c>
       <c r="Y45" t="n">
-        <v>622.6133525810621</v>
+        <v>206.2507668986169</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>74.61115355572886</v>
+        <v>179.7108311998829</v>
       </c>
       <c r="C46" t="n">
-        <v>74.61115355572886</v>
+        <v>179.7108311998829</v>
       </c>
       <c r="D46" t="n">
-        <v>74.61115355572886</v>
+        <v>179.7108311998829</v>
       </c>
       <c r="E46" t="n">
-        <v>74.61115355572886</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="F46" t="n">
-        <v>74.61115355572886</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="G46" t="n">
-        <v>30.85574604144631</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="H46" t="n">
-        <v>30.85574604144631</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="I46" t="n">
-        <v>30.85574604144631</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="J46" t="n">
-        <v>30.85574604144631</v>
+        <v>31.79773761748983</v>
       </c>
       <c r="K46" t="n">
-        <v>87.15793910771444</v>
+        <v>88.09993068375796</v>
       </c>
       <c r="L46" t="n">
-        <v>214.7317966688728</v>
+        <v>215.6737882449164</v>
       </c>
       <c r="M46" t="n">
-        <v>359.6296653869027</v>
+        <v>360.5716569629462</v>
       </c>
       <c r="N46" t="n">
-        <v>506.5168030713318</v>
+        <v>507.4587946473753</v>
       </c>
       <c r="O46" t="n">
-        <v>626.1745535805719</v>
+        <v>627.1165451566154</v>
       </c>
       <c r="P46" t="n">
-        <v>705.041748427516</v>
+        <v>705.9837400035595</v>
       </c>
       <c r="Q46" t="n">
-        <v>705.041748427516</v>
+        <v>705.9837400035595</v>
       </c>
       <c r="R46" t="n">
-        <v>705.041748427516</v>
+        <v>705.9837400035595</v>
       </c>
       <c r="S46" t="n">
-        <v>705.041748427516</v>
+        <v>696.1926288767132</v>
       </c>
       <c r="T46" t="n">
-        <v>705.041748427516</v>
+        <v>468.884441545315</v>
       </c>
       <c r="U46" t="n">
-        <v>705.041748427516</v>
+        <v>179.7108311998829</v>
       </c>
       <c r="V46" t="n">
-        <v>705.041748427516</v>
+        <v>179.7108311998829</v>
       </c>
       <c r="W46" t="n">
-        <v>705.041748427516</v>
+        <v>179.7108311998829</v>
       </c>
       <c r="X46" t="n">
-        <v>477.0521975294987</v>
+        <v>179.7108311998829</v>
       </c>
       <c r="Y46" t="n">
-        <v>256.2596183859686</v>
+        <v>179.7108311998829</v>
       </c>
     </row>
   </sheetData>
@@ -7985,16 +7987,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>245.0306783175538</v>
+        <v>236.944458939016</v>
       </c>
       <c r="N2" t="n">
-        <v>244.715801111726</v>
+        <v>236.2891093383024</v>
       </c>
       <c r="O2" t="n">
-        <v>245.4009489368218</v>
+        <v>236.9742571633982</v>
       </c>
       <c r="P2" t="n">
-        <v>246.5357332704046</v>
+        <v>238.109041496981</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,22 +8063,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>153.8571172950092</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>156.8184790122994</v>
+        <v>148.7322596337616</v>
       </c>
       <c r="N3" t="n">
-        <v>146.6444495984684</v>
+        <v>138.2177578250447</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>149.4722901861559</v>
       </c>
       <c r="P3" t="n">
-        <v>149.2771449294653</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>146.857819827733</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8140,16 +8142,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>150.1874137963733</v>
+        <v>141.7607220229497</v>
       </c>
       <c r="M4" t="n">
-        <v>154.2285214627401</v>
+        <v>145.8018296893165</v>
       </c>
       <c r="N4" t="n">
-        <v>142.9882819803682</v>
+        <v>134.5615902069446</v>
       </c>
       <c r="O4" t="n">
-        <v>153.1409835421239</v>
+        <v>145.0547641635861</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8216,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>235.3925885601156</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>242.6424607116987</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>236.944458939016</v>
       </c>
       <c r="N5" t="n">
-        <v>244.097508686872</v>
+        <v>236.2891093383024</v>
       </c>
       <c r="O5" t="n">
-        <v>245.4009489368218</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>246.5357332704046</v>
+        <v>238.109041496981</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>152.5258840646401</v>
+        <v>144.7174847160704</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>145.4304255215856</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>148.7322596337616</v>
       </c>
       <c r="N6" t="n">
-        <v>146.6444495984684</v>
+        <v>138.2177578250447</v>
       </c>
       <c r="O6" t="n">
-        <v>157.8989819595795</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>155.2845116011566</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,16 +8379,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>150.1874137963733</v>
+        <v>141.4829019929816</v>
       </c>
       <c r="M7" t="n">
-        <v>153.6102290378862</v>
+        <v>145.8018296893165</v>
       </c>
       <c r="N7" t="n">
-        <v>142.9882819803682</v>
+        <v>134.5615902069446</v>
       </c>
       <c r="O7" t="n">
-        <v>153.7592759669778</v>
+        <v>145.3325841935542</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8453,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>245.7101422396114</v>
+        <v>226.965896786692</v>
       </c>
       <c r="L8" t="n">
         <v>235.7664149699872</v>
@@ -8462,13 +8464,13 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>253.9981915106306</v>
+        <v>236.0112893083342</v>
       </c>
       <c r="O8" t="n">
-        <v>255.7185026163176</v>
+        <v>236.9742571633982</v>
       </c>
       <c r="P8" t="n">
-        <v>256.8532869499004</v>
+        <v>238.109041496981</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>144.7174847160704</v>
       </c>
       <c r="L9" t="n">
-        <v>164.174670974505</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>166.719161836058</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>156.9620032779641</v>
+        <v>138.2177578250447</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>149.1944701561877</v>
       </c>
       <c r="P9" t="n">
-        <v>159.5946986089611</v>
+        <v>140.8504531560417</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8614,16 +8616,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>160.5049674758691</v>
+        <v>141.7607220229497</v>
       </c>
       <c r="M10" t="n">
-        <v>164.5460751422359</v>
+        <v>145.8018296893165</v>
       </c>
       <c r="N10" t="n">
-        <v>153.305835659864</v>
+        <v>134.5615902069446</v>
       </c>
       <c r="O10" t="n">
-        <v>163.0416663658825</v>
+        <v>145.0547641635861</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8687,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>52.15938665394273</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>26.92237113682282</v>
       </c>
       <c r="L11" t="n">
-        <v>381.8219006249993</v>
+        <v>393.5967953255433</v>
       </c>
       <c r="M11" t="n">
-        <v>263.800008811239</v>
+        <v>361.170788905359</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>339.8635259382068</v>
       </c>
       <c r="O11" t="n">
-        <v>359.9334980277791</v>
+        <v>371.7083927283231</v>
       </c>
       <c r="P11" t="n">
         <v>12.86109185980288</v>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>6.639660809448799</v>
       </c>
       <c r="L12" t="n">
-        <v>125.6521512780354</v>
+        <v>359.6091179506964</v>
       </c>
       <c r="M12" t="n">
-        <v>321.9605624417852</v>
+        <v>333.7354571423291</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>317.4943611282863</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>309.5143783939586</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>36.266192922115</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,25 +8929,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>26.92237113682282</v>
       </c>
       <c r="L14" t="n">
-        <v>3.07380226668285</v>
+        <v>393.5967953255433</v>
       </c>
       <c r="M14" t="n">
-        <v>349.395894204815</v>
+        <v>361.170788905359</v>
       </c>
       <c r="N14" t="n">
-        <v>344.1480946808394</v>
+        <v>355.9229893813835</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>84.71419447714639</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>12.86109185980288</v>
       </c>
       <c r="Q14" t="n">
-        <v>58.31748437003577</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9009,19 +9011,19 @@
         <v>6.639660809448799</v>
       </c>
       <c r="L15" t="n">
-        <v>347.8342232501524</v>
+        <v>359.6091179506964</v>
       </c>
       <c r="M15" t="n">
-        <v>321.960562441785</v>
+        <v>333.7354571423291</v>
       </c>
       <c r="N15" t="n">
-        <v>35.64350423101276</v>
+        <v>317.4943611282863</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>59.6859478225176</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9182,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9489,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>221.0467526719084</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9951,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>327.4218609627881</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10443,7 +10445,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10674,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>435.9238900028826</v>
+        <v>435.9238900028821</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10841,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599044</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10911,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>435.9238900028821</v>
+        <v>359.9065542451752</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11060,25 +11062,25 @@
         <v>52.15938665394273</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>26.92237113682285</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>393.5967953255432</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>361.1707889053589</v>
       </c>
       <c r="N41" t="n">
-        <v>299.6240153528203</v>
+        <v>339.8635259382068</v>
       </c>
       <c r="O41" t="n">
-        <v>359.933498027779</v>
+        <v>371.7083927283231</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>12.86109185980291</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>58.3174843700358</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>359.6091179506964</v>
       </c>
       <c r="M42" t="n">
-        <v>112.6353093496014</v>
+        <v>38.67196026239525</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>317.4943611282862</v>
       </c>
       <c r="O42" t="n">
-        <v>334.9774043702187</v>
+        <v>346.7522990707627</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>36.26619292211501</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,25 +11299,25 @@
         <v>52.15938665394273</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>26.92237113682285</v>
       </c>
       <c r="L44" t="n">
-        <v>299.6240153528203</v>
+        <v>393.5967953255432</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>361.1707889053589</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>355.9229893813834</v>
       </c>
       <c r="O44" t="n">
-        <v>359.933498027779</v>
+        <v>355.6489292851465</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>12.86109185980291</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>58.3174843700358</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,22 +11375,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>347.8342232501523</v>
+        <v>359.6091179506964</v>
       </c>
       <c r="M45" t="n">
-        <v>273.5895852834018</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>317.4943611282862</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>66.96149069322063</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22559,7 +22561,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>8.426691773423613</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22796,7 +22798,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>8.426691773423613</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23033,7 +23035,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>8.426691773423613</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23267,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>21.17922022363246</v>
+        <v>9.40432552308846</v>
       </c>
       <c r="G11" t="n">
-        <v>28.08734450271601</v>
+        <v>16.31244980217201</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>155.3343873555954</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>328.5705836760118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23337,25 +23339,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23385,22 +23387,22 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325231</v>
+        <v>99.34511593640275</v>
       </c>
       <c r="T12" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888686</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>33.2752330097608</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23422,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F13" t="n">
-        <v>83.08841053406425</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23437,7 +23439,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23495,25 +23497,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>132.3658696470775</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>21.17922022363251</v>
+        <v>9.40432552308846</v>
       </c>
       <c r="G14" t="n">
-        <v>28.08734450271606</v>
+        <v>370.6339418789382</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23577,19 +23579,19 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1.130244955462473</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
         <v>61.42221998250818</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5912426325231</v>
+        <v>7.947829692964348</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8879277888686</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23637,10 +23639,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23659,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>277.006277411481</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23729,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>155.878295976772</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23744,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>62.91776807394115</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23792,10 +23794,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23890,13 +23892,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>81.13398864317803</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23932,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
@@ -23941,13 +23943,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>57.43600972671229</v>
       </c>
     </row>
     <row r="20">
@@ -23969,16 +23971,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>233.2671249421511</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>150.2231564887888</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24020,10 +24022,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24032,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24133,10 +24135,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>120.1051426060693</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
@@ -24172,10 +24174,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>187.0608628667454</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
@@ -24209,16 +24211,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>366.896088053472</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24251,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24266,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>216.5823671005864</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24367,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>115.1895182106638</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,7 +24381,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>134.9656217923382</v>
@@ -24412,22 +24414,22 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>56.0183762878722</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24443,13 +24445,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>260.7615551004101</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24458,10 +24460,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24506,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>367.0351837548286</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24649,16 +24651,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>204.6338493060842</v>
+        <v>50.80735538553427</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24683,19 +24685,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24725,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>113.1283417747729</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24746,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>201.9504862012863</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24838,13 +24840,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>114.7215461176486</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24880,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>202.4523389344415</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24914,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>206.2831525255987</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>228.8207383557129</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24980,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25081,22 +25083,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25129,16 +25131,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>96.68503059263384</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25169,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25208,19 +25210,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>192.6397468097665</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>74.74425144011411</v>
       </c>
     </row>
     <row r="36">
@@ -25312,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25324,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25369,16 +25371,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>89.80115265030472</v>
+        <v>176.8336449816979</v>
       </c>
     </row>
     <row r="38">
@@ -25391,25 +25393,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>4.788808853336661</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25451,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>314.0594097868505</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25546,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>109.0292103492363</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>134.9656217923383</v>
@@ -25594,13 +25596,13 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>72.5725828678471</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25625,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>339.5836135216241</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>21.17922022363263</v>
+        <v>9.404325523088573</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
@@ -25679,10 +25681,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>103.760334756735</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25719,10 +25721,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
         <v>61.42221998250819</v>
@@ -25752,13 +25754,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>105.5204312748516</v>
       </c>
       <c r="T42" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25770,10 +25772,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>39.18429798759385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>114.7731302731597</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25837,7 +25839,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>69.82361682150338</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25910,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>177.915841302237</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
@@ -25925,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>40.61068977423162</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.5411131379747758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25941,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>83.7365311013921</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,25 +25991,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>105.5204312748515</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26029,13 +26031,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>123.9919488199112</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26071,13 +26073,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>202.4523389344411</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26086,10 +26088,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>923655.7266038662</v>
+        <v>921611.7669732863</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>923655.7266038662</v>
+        <v>921611.7669732863</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>925295.9883599353</v>
+        <v>921611.7669732863</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>522852.7407282229</v>
+        <v>530270.6291275395</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>522852.7407282229</v>
+        <v>530270.6291275395</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>704657.4859214108</v>
+        <v>704657.4859214106</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>704657.4859214108</v>
+        <v>704657.4859214106</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>522852.7407282229</v>
+        <v>530270.6291275393</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>522852.7407282229</v>
+        <v>530270.6291275395</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049984</v>
+        <v>574259.7036393834</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049988</v>
+        <v>574259.7036393833</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049988</v>
+        <v>574259.7036393835</v>
       </c>
       <c r="E2" t="n">
-        <v>309168.9156500045</v>
+        <v>313071.3550196251</v>
       </c>
       <c r="F2" t="n">
-        <v>309168.9156500045</v>
+        <v>313071.3550196253</v>
       </c>
       <c r="G2" t="n">
-        <v>404813.6540220606</v>
+        <v>404813.6540220605</v>
       </c>
       <c r="H2" t="n">
         <v>404813.6540220606</v>
       </c>
       <c r="I2" t="n">
-        <v>404813.6540220605</v>
+        <v>404813.6540220606</v>
       </c>
       <c r="J2" t="n">
         <v>404813.6540220606</v>
@@ -26341,19 +26343,19 @@
         <v>404813.6540220606</v>
       </c>
       <c r="L2" t="n">
-        <v>404813.6540220605</v>
+        <v>404813.6540220607</v>
       </c>
       <c r="M2" t="n">
         <v>404813.6540220606</v>
       </c>
       <c r="N2" t="n">
-        <v>404813.6540220605</v>
+        <v>404813.6540220606</v>
       </c>
       <c r="O2" t="n">
-        <v>309168.9156500043</v>
+        <v>313071.3550196251</v>
       </c>
       <c r="P2" t="n">
-        <v>309168.9156500043</v>
+        <v>313071.3550196249</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5128.299304284621</v>
+        <v>2304.321077099562</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3204.941699461775</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>410991.3245282266</v>
+        <v>420103.6683569674</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>79098.31273080972</v>
+        <v>75870.99071681111</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4003.869454409965</v>
+        <v>1799.076112044347</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2611.279978297229</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>89732.51265954063</v>
+        <v>97338.0044623443</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>402526.5473127806</v>
+        <v>403521.8812643668</v>
       </c>
       <c r="C4" t="n">
-        <v>402526.5473127806</v>
+        <v>403521.8812643668</v>
       </c>
       <c r="D4" t="n">
-        <v>400839.1127573195</v>
+        <v>403521.8812643668</v>
       </c>
       <c r="E4" t="n">
-        <v>59403.36136517521</v>
+        <v>60976.12287012383</v>
       </c>
       <c r="F4" t="n">
-        <v>59403.36136517519</v>
+        <v>60976.12287012383</v>
       </c>
       <c r="G4" t="n">
-        <v>97950.11338737927</v>
+        <v>97950.11338737926</v>
       </c>
       <c r="H4" t="n">
         <v>97950.11338737927</v>
@@ -26448,16 +26450,16 @@
         <v>97950.11338737927</v>
       </c>
       <c r="M4" t="n">
-        <v>97950.1133873793</v>
+        <v>97950.11338737927</v>
       </c>
       <c r="N4" t="n">
         <v>97950.11338737927</v>
       </c>
       <c r="O4" t="n">
-        <v>59403.3613651752</v>
+        <v>60976.12287012383</v>
       </c>
       <c r="P4" t="n">
-        <v>59403.36136517521</v>
+        <v>60976.12287012383</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34558.00644092021</v>
+        <v>34045.66358109605</v>
       </c>
       <c r="C5" t="n">
-        <v>34558.00644092021</v>
+        <v>34045.66358109605</v>
       </c>
       <c r="D5" t="n">
-        <v>35185.31370463355</v>
+        <v>34045.66358109605</v>
       </c>
       <c r="E5" t="n">
-        <v>31685.17887143169</v>
+        <v>32401.09246922476</v>
       </c>
       <c r="F5" t="n">
-        <v>31685.17887143169</v>
+        <v>32401.09246922476</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26506,10 +26508,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>31685.17887143168</v>
+        <v>32401.09246922476</v>
       </c>
       <c r="P5" t="n">
-        <v>31685.17887143168</v>
+        <v>32401.09246922476</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>132516.3858470129</v>
+        <v>134387.8377168211</v>
       </c>
       <c r="C6" t="n">
-        <v>137644.6851512979</v>
+        <v>136692.1587939204</v>
       </c>
       <c r="D6" t="n">
-        <v>135499.8707435839</v>
+        <v>136692.1587939207</v>
       </c>
       <c r="E6" t="n">
-        <v>-192910.949114829</v>
+        <v>-200409.5286766909</v>
       </c>
       <c r="F6" t="n">
-        <v>218080.3754133976</v>
+        <v>219694.1396802767</v>
       </c>
       <c r="G6" t="n">
-        <v>178533.7498404622</v>
+        <v>181761.0718544607</v>
       </c>
       <c r="H6" t="n">
         <v>257632.0625712718</v>
       </c>
       <c r="I6" t="n">
+        <v>257632.0625712719</v>
+      </c>
+      <c r="J6" t="n">
+        <v>255832.9864592276</v>
+      </c>
+      <c r="K6" t="n">
         <v>257632.0625712718</v>
       </c>
-      <c r="J6" t="n">
-        <v>253628.1931168619</v>
-      </c>
-      <c r="K6" t="n">
-        <v>257632.0625712719</v>
-      </c>
       <c r="L6" t="n">
-        <v>255020.7825929745</v>
+        <v>257632.062571272</v>
       </c>
       <c r="M6" t="n">
-        <v>167899.5499117312</v>
+        <v>160294.0581089276</v>
       </c>
       <c r="N6" t="n">
         <v>257632.0625712718</v>
       </c>
       <c r="O6" t="n">
-        <v>218080.3754133974</v>
+        <v>219694.1396802765</v>
       </c>
       <c r="P6" t="n">
-        <v>218080.3754133974</v>
+        <v>219694.1396802763</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="C4" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="D4" t="n">
-        <v>25.62029119463083</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>385.696825518079</v>
+        <v>397.471720218623</v>
       </c>
       <c r="F4" t="n">
-        <v>385.6968255180789</v>
+        <v>397.471720218623</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="M4" t="n">
         <v>674.2872727545555</v>
-      </c>
-      <c r="M4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
-        <v>385.6968255180788</v>
+        <v>397.4717202186229</v>
       </c>
       <c r="P4" t="n">
-        <v>385.6968255180788</v>
+        <v>397.4717202186229</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>10.31755367949578</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>360.0765343234481</v>
+        <v>390.5956744769115</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>288.5904472364767</v>
+        <v>276.8155525359326</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.30273751513494</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>10.31755367949563</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>360.0765343234484</v>
+        <v>390.5956744769117</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>10.31755367949578</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>360.0765343234481</v>
+        <v>390.5956744769115</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>288.5904472364767</v>
+        <v>276.8155525359326</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27400,7 +27402,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.073243612901081</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,7 +27423,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>3.934278125245373</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27433,7 +27435,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>236.0775609851042</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27503,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>84.85509663750808</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>156.3804335887028</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>187.4326688177485</v>
+        <v>194.85489893178</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>219.0653363392634</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>225.9245414077138</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>244.8189374192082</v>
       </c>
       <c r="X3" t="n">
-        <v>190.4702476883424</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27552,16 +27554,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>146.9244349923045</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>140.1477374121232</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>6.966754310747802</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>75.40483278346996</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>171.2369702878701</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27591,13 +27593,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>279.4429836147795</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>245.2615975821166</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>279.6469525948796</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27625,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>391.5733082265764</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27637,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>5.073243612901081</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,10 +27660,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>3.934278125245373</v>
       </c>
       <c r="R5" t="n">
-        <v>146.3811659523635</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>370.9352011409185</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27698,10 +27700,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>140.5690198229273</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>151.5886593661015</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27716,7 +27718,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>93.2817884109317</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>164.8071253621264</v>
       </c>
       <c r="T6" t="n">
-        <v>184.8619911796866</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>217.4978496342902</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>193.0409253264044</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.3799582621693</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>151.9440835834928</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>141.7394272765009</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>161.1149336167473</v>
       </c>
       <c r="H7" t="n">
-        <v>151.4699620392151</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>140.1477374121232</v>
+        <v>148.5744291855468</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -27813,10 +27815,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>70.85930573655934</v>
+        <v>80.10562216239495</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27856,13 +27858,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>333.7484248115688</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>381.2557545470806</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27874,7 +27876,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,10 +27897,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>3.934278125245373</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>142.9930721994382</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27916,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>344.1108094838382</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27929,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>143.9668311656365</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>121.8247743700079</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27977,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>74.5375429580123</v>
+        <v>93.2817884109317</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>164.8071253621264</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>200.321090886344</v>
+        <v>219.0653363392634</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27995,7 +27997,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>199.7165641141781</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28020,22 +28022,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.1241873645833</v>
+        <v>142.0860676687383</v>
       </c>
       <c r="G10" t="n">
-        <v>142.3706881638279</v>
+        <v>161.1149336167473</v>
       </c>
       <c r="H10" t="n">
-        <v>136.6068813128088</v>
+        <v>155.3511267657281</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>67.73888892204195</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15.39344608417142</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -33646,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33670,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33758,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33828,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33843,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -34705,16 +34707,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>14.68444509028111</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="N2" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O2" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P2" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>14.68444509028111</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="N3" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N4" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O4" t="n">
-        <v>14.68444509028111</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="N5" t="n">
-        <v>14.68444509028111</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O5" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>14.68444509028111</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="N6" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O6" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>15.30273751513505</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="M7" t="n">
-        <v>14.68444509028111</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N7" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O7" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35173,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>25.62029119463083</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,13 +35184,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>24.58512791403969</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="O8" t="n">
-        <v>25.62029119463083</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P8" t="n">
-        <v>25.62029119463083</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>25.62029119463083</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="P9" t="n">
-        <v>25.62029119463083</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35334,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>25.62029119463083</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M10" t="n">
-        <v>25.62029119463083</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N10" t="n">
-        <v>25.62029119463083</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O10" t="n">
-        <v>24.58512791403967</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35407,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>385.696825518079</v>
+        <v>397.471720218623</v>
       </c>
       <c r="M11" t="n">
-        <v>300.1009401245029</v>
+        <v>397.471720218623</v>
       </c>
       <c r="N11" t="n">
-        <v>41.54873083723948</v>
+        <v>381.4122567754463</v>
       </c>
       <c r="O11" t="n">
-        <v>385.696825518079</v>
+        <v>397.471720218623</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>163.5147535459619</v>
+        <v>397.471720218623</v>
       </c>
       <c r="M12" t="n">
-        <v>385.696825518079</v>
+        <v>397.471720218623</v>
       </c>
       <c r="N12" t="n">
-        <v>79.97735909033671</v>
+        <v>397.471720218623</v>
       </c>
       <c r="O12" t="n">
-        <v>50.71942114786026</v>
+        <v>360.2337995418189</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>21.17845723362748</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,25 +35649,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>6.948727159762558</v>
+        <v>397.471720218623</v>
       </c>
       <c r="M14" t="n">
-        <v>385.6968255180789</v>
+        <v>397.471720218623</v>
       </c>
       <c r="N14" t="n">
-        <v>385.6968255180789</v>
+        <v>397.471720218623</v>
       </c>
       <c r="O14" t="n">
-        <v>25.76332749029984</v>
+        <v>110.4775219674462</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35729,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>385.6968255180789</v>
+        <v>397.471720218623</v>
       </c>
       <c r="M15" t="n">
-        <v>385.6968255180789</v>
+        <v>397.471720218623</v>
       </c>
       <c r="N15" t="n">
-        <v>115.6208633213495</v>
+        <v>397.471720218623</v>
       </c>
       <c r="O15" t="n">
-        <v>50.71942114786026</v>
+        <v>110.4053689703779</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>21.17845723362748</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
         <v>297.2230414343419</v>
@@ -35902,7 +35904,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35981,7 +35983,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
         <v>297.2230414343419</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36209,7 +36211,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
@@ -36218,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624596</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36692,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36929,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
-        <v>365.2844632307146</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
         <v>529.4413268262938</v>
@@ -37163,7 +37165,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q33" t="n">
         <v>173.8110948137341</v>
@@ -37318,10 +37320,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37394,10 +37396,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>515.9012490932192</v>
+        <v>515.9012490932188</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
@@ -37464,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37479,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37561,7 +37563,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37631,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>515.9012490932188</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245897</v>
@@ -37780,25 +37782,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>3.87492489307968</v>
+        <v>397.4717202186229</v>
       </c>
       <c r="M41" t="n">
-        <v>36.30093131326393</v>
+        <v>397.4717202186229</v>
       </c>
       <c r="N41" t="n">
-        <v>341.1727461900597</v>
+        <v>381.4122567754463</v>
       </c>
       <c r="O41" t="n">
-        <v>385.6968255180788</v>
+        <v>397.4717202186229</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898689</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>37.86260226792652</v>
+        <v>397.4717202186229</v>
       </c>
       <c r="M42" t="n">
-        <v>176.3715724258952</v>
+        <v>102.4082233386891</v>
       </c>
       <c r="N42" t="n">
-        <v>79.97735909033668</v>
+        <v>397.4717202186229</v>
       </c>
       <c r="O42" t="n">
-        <v>385.6968255180788</v>
+        <v>397.4717202186229</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>21.17845723362746</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,25 +38019,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>303.4989402459</v>
+        <v>397.4717202186229</v>
       </c>
       <c r="M44" t="n">
-        <v>36.30093131326393</v>
+        <v>397.4717202186229</v>
       </c>
       <c r="N44" t="n">
-        <v>41.54873083723948</v>
+        <v>397.4717202186229</v>
       </c>
       <c r="O44" t="n">
-        <v>385.6968255180788</v>
+        <v>381.4122567754463</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898689</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
-        <v>385.6968255180788</v>
+        <v>397.4717202186229</v>
       </c>
       <c r="M45" t="n">
-        <v>337.3258483596957</v>
+        <v>63.73626307629385</v>
       </c>
       <c r="N45" t="n">
-        <v>79.97735909033668</v>
+        <v>397.4717202186229</v>
       </c>
       <c r="O45" t="n">
-        <v>50.71942114786023</v>
+        <v>117.6809118410809</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
